--- a/output/calorimetry/DEPR/test_tmp.xlsx
+++ b/output/calorimetry/DEPR/test_tmp.xlsx
@@ -23,12 +23,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
-  <si>
-    <t>Ald</t>
-  </si>
-  <si>
-    <t>Hydr</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="148">
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>OH</t>
   </si>
   <si>
     <t>lg_k</t>
@@ -37,103 +40,382 @@
     <t>tot</t>
   </si>
   <si>
-    <t>0.000797022</t>
-  </si>
-  <si>
-    <t>0.000795695999140632</t>
-  </si>
-  <si>
-    <t>0.000794374403072852</t>
-  </si>
-  <si>
-    <t>0.00079305718988489</t>
-  </si>
-  <si>
-    <t>0.00079174433781007</t>
-  </si>
-  <si>
-    <t>0.000790435825225612</t>
-  </si>
-  <si>
-    <t>0.000789131630651443</t>
-  </si>
-  <si>
-    <t>0.000787831732749021</t>
-  </si>
-  <si>
-    <t>0.000786536110320174</t>
-  </si>
-  <si>
-    <t>0.000785244742305947</t>
-  </si>
-  <si>
-    <t>0.000783957607785458</t>
-  </si>
-  <si>
-    <t>0.000782674685974772</t>
-  </si>
-  <si>
-    <t>0.000781395956225779</t>
-  </si>
-  <si>
-    <t>0.000780121398025091</t>
-  </si>
-  <si>
-    <t>0.00077885099099294</t>
-  </si>
-  <si>
-    <t>0.000777584714882092</t>
-  </si>
-  <si>
-    <t>1e-18</t>
-  </si>
-  <si>
-    <t>9.91228989929249e-05</t>
-  </si>
-  <si>
-    <t>0.000197916525415226</t>
-  </si>
-  <si>
-    <t>0.000296382517243294</t>
-  </si>
-  <si>
-    <t>0.000394522501607286</t>
-  </si>
-  <si>
-    <t>0.000492338094880755</t>
-  </si>
-  <si>
-    <t>0.000589830902769389</t>
-  </si>
-  <si>
-    <t>0.000687002520398875</t>
-  </si>
-  <si>
-    <t>0.000783854532401893</t>
-  </si>
-  <si>
-    <t>0.000880388513004259</t>
-  </si>
-  <si>
-    <t>0.000976606026110215</t>
-  </si>
-  <si>
-    <t>0.00107250862538688</t>
-  </si>
-  <si>
-    <t>0.00116809785434789</t>
-  </si>
-  <si>
-    <t>0.00126337524643619</t>
-  </si>
-  <si>
-    <t>0.00135834232510604</t>
-  </si>
-  <si>
-    <t>0.00145300060390421</t>
-  </si>
-  <si>
-    <t>Hydrz</t>
+    <t>0.0010561174089068824</t>
+  </si>
+  <si>
+    <t>0.0010791290793161661</t>
+  </si>
+  <si>
+    <t>0.0011020475850679224</t>
+  </si>
+  <si>
+    <t>0.0011248733033469994</t>
+  </si>
+  <si>
+    <t>0.0011476066098111814</t>
+  </si>
+  <si>
+    <t>0.0011702478785973708</t>
+  </si>
+  <si>
+    <t>0.0011927974823277457</t>
+  </si>
+  <si>
+    <t>0.0012152557921158923</t>
+  </si>
+  <si>
+    <t>0.001237623177572913</t>
+  </si>
+  <si>
+    <t>0.0012599000068135083</t>
+  </si>
+  <si>
+    <t>0.0012820866464620365</t>
+  </si>
+  <si>
+    <t>0.0013041834616585462</t>
+  </si>
+  <si>
+    <t>0.0013261908160647868</t>
+  </si>
+  <si>
+    <t>0.0013481090718701924</t>
+  </si>
+  <si>
+    <t>0.0013699385897978434</t>
+  </si>
+  <si>
+    <t>0.0013916797291104025</t>
+  </si>
+  <si>
+    <t>0.0014133328476160284</t>
+  </si>
+  <si>
+    <t>0.001434898301674263</t>
+  </si>
+  <si>
+    <t>0.0014563764462018974</t>
+  </si>
+  <si>
+    <t>0.0014777676346788126</t>
+  </si>
+  <si>
+    <t>0.001499072219153797</t>
+  </si>
+  <si>
+    <t>0.0015202905502503402</t>
+  </si>
+  <si>
+    <t>0.0015414229771724035</t>
+  </si>
+  <si>
+    <t>0.001562469847710167</t>
+  </si>
+  <si>
+    <t>0.0015834315082457532</t>
+  </si>
+  <si>
+    <t>0.0016043083037589282</t>
+  </si>
+  <si>
+    <t>0.0016251005778327786</t>
+  </si>
+  <si>
+    <t>0.0016458086726593663</t>
+  </si>
+  <si>
+    <t>0.0016664329290453606</t>
+  </si>
+  <si>
+    <t>0.0016869736864176465</t>
+  </si>
+  <si>
+    <t>0.001707431282828911</t>
+  </si>
+  <si>
+    <t>0.0017278060549632069</t>
+  </si>
+  <si>
+    <t>0.0017480983381414933</t>
+  </si>
+  <si>
+    <t>0.0017683084663271552</t>
+  </si>
+  <si>
+    <t>0.0017884367721314985</t>
+  </si>
+  <si>
+    <t>0.001808483586819225</t>
+  </si>
+  <si>
+    <t>0.0018284492403138838</t>
+  </si>
+  <si>
+    <t>0.0018483340612033012</t>
+  </si>
+  <si>
+    <t>0.0018681383767449882</t>
+  </si>
+  <si>
+    <t>0.0018878625128715264</t>
+  </si>
+  <si>
+    <t>0.001907506794195933</t>
+  </si>
+  <si>
+    <t>0.0019270715440170018</t>
+  </si>
+  <si>
+    <t>0.0019465570843246252</t>
+  </si>
+  <si>
+    <t>0.0019659637358050925</t>
+  </si>
+  <si>
+    <t>0.001047</t>
+  </si>
+  <si>
+    <t>0.0012009514170040485</t>
+  </si>
+  <si>
+    <t>0.0014872730048025701</t>
+  </si>
+  <si>
+    <t>0.0017692476049320856</t>
+  </si>
+  <si>
+    <t>0.0020469412141689465</t>
+  </si>
+  <si>
+    <t>0.002320418827314155</t>
+  </si>
+  <si>
+    <t>0.0025897444524055394</t>
+  </si>
+  <si>
+    <t>0.0028549811256989776</t>
+  </si>
+  <si>
+    <t>0.003116190926422171</t>
+  </si>
+  <si>
+    <t>0.003373434991304426</t>
+  </si>
+  <si>
+    <t>0.0036267735288858364</t>
+  </si>
+  <si>
+    <t>0.0038762658336092297</t>
+  </si>
+  <si>
+    <t>0.004121970299698159</t>
+  </si>
+  <si>
+    <t>0.004363944434824198</t>
+  </si>
+  <si>
+    <t>0.004602244873566745</t>
+  </si>
+  <si>
+    <t>0.004836927390668464</t>
+  </si>
+  <si>
+    <t>0.0050680469140894895</t>
+  </si>
+  <si>
+    <t>0.0009878987854251011</t>
+  </si>
+  <si>
+    <t>0.000983899195200708</t>
+  </si>
+  <si>
+    <t>0.000979915797649288</t>
+  </si>
+  <si>
+    <t>0.000975948527213461</t>
+  </si>
+  <si>
+    <t>0.0009719973186012607</t>
+  </si>
+  <si>
+    <t>0.0009680621067850612</t>
+  </si>
+  <si>
+    <t>0.0009641428270005062</t>
+  </si>
+  <si>
+    <t>0.0009602394147454434</t>
+  </si>
+  <si>
+    <t>0.0009563518057788626</t>
+  </si>
+  <si>
+    <t>0.0009524799361198389</t>
+  </si>
+  <si>
+    <t>0.0009486237420464792</t>
+  </si>
+  <si>
+    <t>0.0009447831600948739</t>
+  </si>
+  <si>
+    <t>0.0009409581270580525</t>
+  </si>
+  <si>
+    <t>0.0009371485799849429</t>
+  </si>
+  <si>
+    <t>0.0009333544561793359</t>
+  </si>
+  <si>
+    <t>0.0009295756931988527</t>
+  </si>
+  <si>
+    <t>0.000925812228853918</t>
+  </si>
+  <si>
+    <t>0.0009220640012067362</t>
+  </si>
+  <si>
+    <t>0.0009183309485702717</t>
+  </si>
+  <si>
+    <t>0.0009146130095072341</t>
+  </si>
+  <si>
+    <t>0.0009109101228290671</t>
+  </si>
+  <si>
+    <t>0.0009072222275949413</t>
+  </si>
+  <si>
+    <t>0.0009035492631107512</t>
+  </si>
+  <si>
+    <t>0.0008998911689281165</t>
+  </si>
+  <si>
+    <t>0.0008962478848433872</t>
+  </si>
+  <si>
+    <t>0.0008926193508966529</t>
+  </si>
+  <si>
+    <t>0.0008890055073707554</t>
+  </si>
+  <si>
+    <t>0.000885406294790307</t>
+  </si>
+  <si>
+    <t>0.0008818216539207106</t>
+  </si>
+  <si>
+    <t>0.0008782515257671855</t>
+  </si>
+  <si>
+    <t>0.0008746958515737961</t>
+  </si>
+  <si>
+    <t>0.0008711545728224852</t>
+  </si>
+  <si>
+    <t>0.0008676276312321107</t>
+  </si>
+  <si>
+    <t>0.0008641149687574867</t>
+  </si>
+  <si>
+    <t>0.000860616527588428</t>
+  </si>
+  <si>
+    <t>0.0008571322501487987</t>
+  </si>
+  <si>
+    <t>0.0008536620790955647</t>
+  </si>
+  <si>
+    <t>0.0008502059573178498</t>
+  </si>
+  <si>
+    <t>0.0008467638279359962</t>
+  </si>
+  <si>
+    <t>0.0008433356343006277</t>
+  </si>
+  <si>
+    <t>0.0008399213199917182</t>
+  </si>
+  <si>
+    <t>0.0008365208288176626</t>
+  </si>
+  <si>
+    <t>0.0008331341048143522</t>
+  </si>
+  <si>
+    <t>0.0008297610922442536</t>
+  </si>
+  <si>
+    <t>0.00103853513825829</t>
+  </si>
+  <si>
+    <t>0.00102276790437785</t>
+  </si>
+  <si>
+    <t>0.00100724005157859</t>
+  </si>
+  <si>
+    <t>0.000991947945532358</t>
+  </si>
+  <si>
+    <t>0.00097688800708804</t>
+  </si>
+  <si>
+    <t>0.00096205671143387</t>
+  </si>
+  <si>
+    <t>0.000947450587272424</t>
+  </si>
+  <si>
+    <t>0.000933066216008167</t>
+  </si>
+  <si>
+    <t>0.000918900230947314</t>
+  </si>
+  <si>
+    <t>0.000904949316509855</t>
+  </si>
+  <si>
+    <t>0.000891210207453531</t>
+  </si>
+  <si>
+    <t>0.000877679688109601</t>
+  </si>
+  <si>
+    <t>0.000864354591630204</t>
+  </si>
+  <si>
+    <t>0.000851231799247154</t>
+  </si>
+  <si>
+    <t>0.000838308239541985</t>
+  </si>
+  <si>
+    <t>0.000825580887727076</t>
+  </si>
+  <si>
+    <t>1e-16</t>
+  </si>
+  <si>
+    <t>HL</t>
+  </si>
+  <si>
+    <t>H2L</t>
+  </si>
+  <si>
+    <t>HOH</t>
+  </si>
+  <si>
+    <t>HOHD</t>
   </si>
   <si>
     <t>data</t>
@@ -148,13 +430,43 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>5.1243896484375</t>
-  </si>
-  <si>
-    <t>0.08683091632101476</t>
+    <t>4.5028076171875</t>
+  </si>
+  <si>
+    <t>-3.17564697265625</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>-14.0</t>
+  </si>
+  <si>
+    <t>81912001.35099065</t>
+  </si>
+  <si>
+    <t>81912001.37348711</t>
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>Insignificant</t>
+  </si>
+  <si>
+    <t>-0.0</t>
+  </si>
+  <si>
+    <t>-13.724482982060934</t>
+  </si>
+  <si>
+    <t>0.17120014941633618</t>
+  </si>
+  <si>
+    <t>-7334080844.708534</t>
+  </si>
+  <si>
+    <t>1254982971.6378026</t>
   </si>
 </sst>
 </file>
@@ -512,26 +824,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -541,15 +892,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -558,35 +909,71 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2">
-        <v>-0</v>
-      </c>
-      <c r="C2">
-        <v>-0</v>
-      </c>
-      <c r="D2">
-        <v>-47.18400184222094</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0.5878688796803287</v>
+        <v>133</v>
+      </c>
+      <c r="B3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +983,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -604,12 +991,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>-14</v>
       </c>
     </row>
   </sheetData>
@@ -619,154 +1021,703 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
         <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -776,13 +1727,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,183 +1741,1422 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>0.0007970219999999987</v>
+        <v>2.248404398503352e-06</v>
       </c>
       <c r="B2">
-        <v>9.333989435922405e-21</v>
+        <v>0.0009219241165460738</v>
       </c>
       <c r="C2">
-        <v>9.906660105643585e-19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>4.449795907830086e-09</v>
+      </c>
+      <c r="D2">
+        <v>6.597466887902484e-05</v>
+      </c>
+      <c r="E2">
+        <v>3.110262581803132e-18</v>
+      </c>
+      <c r="F2">
+        <v>1.000494069160743</v>
+      </c>
+      <c r="G2">
+        <v>0.9995061748230478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
-        <v>0.0006976287261882581</v>
+        <v>3.24059485225518e-06</v>
       </c>
       <c r="B3">
-        <v>1.055626040551382e-06</v>
+        <v>0.0008919068185658264</v>
       </c>
       <c r="C3">
-        <v>9.806727295240044e-05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>3.087371654514713e-09</v>
+      </c>
+      <c r="D3">
+        <v>9.199237663487502e-05</v>
+      </c>
+      <c r="E3">
+        <v>6.250604020991174e-18</v>
+      </c>
+      <c r="F3">
+        <v>1.000492069061897</v>
+      </c>
+      <c r="G3">
+        <v>0.9995081729509779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
-        <v>0.0005989087469879401</v>
+        <v>4.294741679789929e-06</v>
       </c>
       <c r="B4">
-        <v>2.450869330314633e-06</v>
+        <v>0.000862076422340611</v>
       </c>
       <c r="C4">
-        <v>0.0001954656560849638</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>2.329569858585855e-09</v>
+      </c>
+      <c r="D4">
+        <v>0.0001178393753086665</v>
+      </c>
+      <c r="E4">
+        <v>1.061140496008971e-17</v>
+      </c>
+      <c r="F4">
+        <v>1.000490076765103</v>
+      </c>
+      <c r="G4">
+        <v>0.9995101632924858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
-        <v>0.0005010511050819636</v>
+        <v>5.416548548001996e-06</v>
       </c>
       <c r="B5">
-        <v>4.37643244036896e-06</v>
+        <v>0.0008324384525328179</v>
       </c>
       <c r="C5">
-        <v>0.0002920060848030009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>1.847095218543489e-09</v>
+      </c>
+      <c r="D5">
+        <v>0.0001435100746806275</v>
+      </c>
+      <c r="E5">
+        <v>1.629860522404433e-17</v>
+      </c>
+      <c r="F5">
+        <v>1.000488092402314</v>
+      </c>
+      <c r="G5">
+        <v>0.9995121457156556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
-        <v>0.0004044140977156767</v>
+        <v>6.612413248296399e-06</v>
       </c>
       <c r="B6">
-        <v>7.192261512894368e-06</v>
+        <v>0.000802998927597382</v>
       </c>
       <c r="C6">
-        <v>0.0003873302400944905</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>1.513042331802514e-09</v>
+      </c>
+      <c r="D6">
+        <v>0.0001689983910038553</v>
+      </c>
+      <c r="E6">
+        <v>2.34308458752234e-17</v>
+      </c>
+      <c r="F6">
+        <v>1.00048611600442</v>
+      </c>
+      <c r="G6">
+        <v>0.9995141201895326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
-        <v>0.0003097512590243266</v>
+        <v>7.889523616642985e-06</v>
       </c>
       <c r="B7">
-        <v>1.165352867947256e-05</v>
+        <v>0.0007737645904720039</v>
       </c>
       <c r="C7">
-        <v>0.0004806845662014034</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>1.26811731123803e-09</v>
+      </c>
+      <c r="D7">
+        <v>0.000194297516313025</v>
+      </c>
+      <c r="E7">
+        <v>3.214130009970196e-17</v>
+      </c>
+      <c r="F7">
+        <v>1.000484147568621</v>
+      </c>
+      <c r="G7">
+        <v>0.999516086716818</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
-        <v>0.0002188669363957203</v>
+        <v>9.255972822520536e-06</v>
       </c>
       <c r="B8">
-        <v>1.95662085136713e-05</v>
+        <v>0.0007447430635913593</v>
       </c>
       <c r="C8">
-        <v>0.0005702646942558629</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>1.080904413033815e-09</v>
+      </c>
+      <c r="D8">
+        <v>0.0002193997634091043</v>
+      </c>
+      <c r="E8">
+        <v>4.257980182740016e-17</v>
+      </c>
+      <c r="F8">
+        <v>1.000482187078352</v>
+      </c>
+      <c r="G8">
+        <v>0.99951804531397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
-        <v>0.000136622943217865</v>
+        <v>1.072089472952019e-05</v>
       </c>
       <c r="B9">
-        <v>3.579373086772788e-05</v>
+        <v>0.0007159429988987751</v>
       </c>
       <c r="C9">
-        <v>0.0006512087895313295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>9.332059121481261e-10</v>
+      </c>
+      <c r="D9">
+        <v>0.0002442964158466134</v>
+      </c>
+      <c r="E9">
+        <v>5.491532233516724e-17</v>
+      </c>
+      <c r="F9">
+        <v>1.000480234510596</v>
+      </c>
+      <c r="G9">
+        <v>0.9995199960038885</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
-        <v>7.447759817241203e-05</v>
+        <v>1.229462209052787e-05</v>
       </c>
       <c r="B10">
-        <v>7.179602025413232e-05</v>
+        <v>0.0006873742423227897</v>
       </c>
       <c r="C10">
-        <v>0.0007120585121480837</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>8.137527794447922e-10</v>
+      </c>
+      <c r="D10">
+        <v>0.0002689775634560028</v>
+      </c>
+      <c r="E10">
+        <v>6.933885237368088e-17</v>
+      </c>
+      <c r="F10">
+        <v>1.000478289839039</v>
+      </c>
+      <c r="G10">
+        <v>0.9995219388127694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
-        <v>4.103791556752243e-05</v>
+        <v>1.398887114677176e-05</v>
       </c>
       <c r="B11">
-        <v>0.0001361816862657425</v>
+        <v>0.0006590480213785588</v>
       </c>
       <c r="C11">
-        <v>0.0007442068267402886</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>7.151944874883779e-10</v>
+      </c>
+      <c r="D11">
+        <v>0.0002934319147411946</v>
+      </c>
+      <c r="E11">
+        <v>8.606675472600551e-17</v>
+      </c>
+      <c r="F11">
+        <v>1.000476353035641</v>
+      </c>
+      <c r="G11">
+        <v>0.9995238737685344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
-        <v>2.602781679037322e-05</v>
+        <v>1.58169567329167e-05</v>
       </c>
       <c r="B12">
-        <v>0.0002186762351147518</v>
+        <v>0.0006309771618313373</v>
       </c>
       <c r="C12">
-        <v>0.0007579297910064992</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>6.325328196600757e-10</v>
+      </c>
+      <c r="D12">
+        <v>0.0003176465802150362</v>
+      </c>
+      <c r="E12">
+        <v>1.053446588030224e-16</v>
+      </c>
+      <c r="F12">
+        <v>1.000474424071325</v>
+      </c>
+      <c r="G12">
+        <v>0.9995258009001426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
-        <v>1.860280597664188e-05</v>
+        <v>1.779404237520023e-05</v>
       </c>
       <c r="B13">
-        <v>0.0003084367453874355</v>
+        <v>0.0006031763386551915</v>
       </c>
       <c r="C13">
-        <v>0.0007640718800534368</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>5.622513883134968e-10</v>
+      </c>
+      <c r="D13">
+        <v>0.0003416068214395547</v>
+      </c>
+      <c r="E13">
+        <v>1.274519736280194e-16</v>
+      </c>
+      <c r="F13">
+        <v>1.00047250291655</v>
+      </c>
+      <c r="G13">
+        <v>0.9995277202370154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
-        <v>1.43618886450402e-05</v>
+        <v>1.993743004352887e-05</v>
       </c>
       <c r="B14">
-        <v>0.000401063786763172</v>
+        <v>0.0005756623662899079</v>
       </c>
       <c r="C14">
-        <v>0.0007670340677972558</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>5.01805191219306e-10</v>
+      </c>
+      <c r="D14">
+        <v>0.0003652957607679919</v>
+      </c>
+      <c r="E14">
+        <v>1.527070962288551e-16</v>
+      </c>
+      <c r="F14">
+        <v>1.000470589541457</v>
+      </c>
+      <c r="G14">
+        <v>0.999529631808894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
-        <v>1.166010990015543e-05</v>
+        <v>2.226689402298195e-05</v>
       </c>
       <c r="B15">
-        <v>0.000494913958300624</v>
+        <v>0.0005484545328152057</v>
       </c>
       <c r="C15">
-        <v>0.0007684612888361514</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>4.493076954888779e-10</v>
+      </c>
+      <c r="D15">
+        <v>0.0003886940471695566</v>
+      </c>
+      <c r="E15">
+        <v>1.814733856866657e-16</v>
+      </c>
+      <c r="F15">
+        <v>1.00046868391611</v>
+      </c>
+      <c r="G15">
+        <v>0.999531535645598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
-        <v>9.800205155534548e-06</v>
+        <v>2.480506253309061e-05</v>
       </c>
       <c r="B16">
-        <v>0.0005892915392431703</v>
+        <v>0.0005215749817624594</v>
       </c>
       <c r="C16">
-        <v>0.000769050787861077</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>4.033316927445612e-10</v>
+      </c>
+      <c r="D16">
+        <v>0.0004117794744166633</v>
+      </c>
+      <c r="E16">
+        <v>2.141659536155198e-16</v>
+      </c>
+      <c r="F16">
+        <v>1.000466786010614</v>
+      </c>
+      <c r="G16">
+        <v>0.9995334317769052</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
-        <v>8.445915395269118e-06</v>
+        <v>2.757784883657733e-05</v>
       </c>
       <c r="B17">
-        <v>0.0006838618043618327</v>
+        <v>0.0004950491433456134</v>
       </c>
       <c r="C17">
-        <v>0.0007691388046014878</v>
+        <v>3.627784392190282e-10</v>
+      </c>
+      <c r="D17">
+        <v>0.0004345265498529873</v>
+      </c>
+      <c r="E17">
+        <v>2.512592818748724e-16</v>
+      </c>
+      <c r="F17">
+        <v>1.000464895795183</v>
+      </c>
+      <c r="G17">
+        <v>0.9995353202324869</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>3.061493003304273e-05</v>
+      </c>
+      <c r="B18">
+        <v>0.0004689062133360171</v>
+      </c>
+      <c r="C18">
+        <v>3.267892535309904e-10</v>
+      </c>
+      <c r="D18">
+        <v>0.0004569060155176071</v>
+      </c>
+      <c r="E18">
+        <v>2.932956064406692e-16</v>
+      </c>
+      <c r="F18">
+        <v>1.000463013240151</v>
+      </c>
+      <c r="G18">
+        <v>0.9995372010418943</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>3.395026567826324e-05</v>
+      </c>
+      <c r="B19">
+        <v>0.0004431796717334047</v>
+      </c>
+      <c r="C19">
+        <v>2.946843326049692e-10</v>
+      </c>
+      <c r="D19">
+        <v>0.0004788843294729886</v>
+      </c>
+      <c r="E19">
+        <v>3.408938868510839e-16</v>
+      </c>
+      <c r="F19">
+        <v>1.000461138316037</v>
+      </c>
+      <c r="G19">
+        <v>0.999539074234494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>3.76226386734446e-05</v>
+      </c>
+      <c r="B20">
+        <v>0.0004179078236931507</v>
+      </c>
+      <c r="C20">
+        <v>2.659194852539802e-10</v>
+      </c>
+      <c r="D20">
+        <v>0.0005004231248767271</v>
+      </c>
+      <c r="E20">
+        <v>3.947589928708394e-16</v>
+      </c>
+      <c r="F20">
+        <v>1.000459270993888</v>
+      </c>
+      <c r="G20">
+        <v>0.9995409398391278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>4.167618616581948e-05</v>
+      </c>
+      <c r="B21">
+        <v>0.0003931343304472203</v>
+      </c>
+      <c r="C21">
+        <v>2.400549338329381e-10</v>
+      </c>
+      <c r="D21">
+        <v>0.0005214786790595567</v>
+      </c>
+      <c r="E21">
+        <v>4.556904596276927e-16</v>
+      </c>
+      <c r="F21">
+        <v>1.000457411244502</v>
+      </c>
+      <c r="G21">
+        <v>0.9995427978848864</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>4.616086707385853e-05</v>
+      </c>
+      <c r="B22">
+        <v>0.0003689086768463655</v>
+      </c>
+      <c r="C22">
+        <v>2.167324018066728e-10</v>
+      </c>
+      <c r="D22">
+        <v>0.0005420014459821775</v>
+      </c>
+      <c r="E22">
+        <v>5.24589765229698e-16</v>
+      </c>
+      <c r="F22">
+        <v>1.000455559039593</v>
+      </c>
+      <c r="G22">
+        <v>0.9995446483999446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>5.113278436373496e-05</v>
+      </c>
+      <c r="B23">
+        <v>0.0003452864936461634</v>
+      </c>
+      <c r="C23">
+        <v>1.956579769319929e-10</v>
+      </c>
+      <c r="D23">
+        <v>0.0005619357339481753</v>
+      </c>
+      <c r="E23">
+        <v>6.024645571176013e-16</v>
+      </c>
+      <c r="F23">
+        <v>1.00045371435082</v>
+      </c>
+      <c r="G23">
+        <v>0.9995464914125344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>5.665424490483581e-05</v>
+      </c>
+      <c r="B24">
+        <v>0.0003223296173655581</v>
+      </c>
+      <c r="C24">
+        <v>1.765890409149006e-10</v>
+      </c>
+      <c r="D24">
+        <v>0.0005812196457445023</v>
+      </c>
+      <c r="E24">
+        <v>6.904276112656878e-16</v>
+      </c>
+      <c r="F24">
+        <v>1.000451877150283</v>
+      </c>
+      <c r="G24">
+        <v>0.9995483269504479</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>6.279340138871325e-05</v>
+      </c>
+      <c r="B25">
+        <v>0.00030010573221165</v>
+      </c>
+      <c r="C25">
+        <v>1.593240731167194e-10</v>
+      </c>
+      <c r="D25">
+        <v>0.0005997854367156767</v>
+      </c>
+      <c r="E25">
+        <v>7.896876302095615e-16</v>
+      </c>
+      <c r="F25">
+        <v>1.000450047410287</v>
+      </c>
+      <c r="G25">
+        <v>0.9995501550412716</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>6.962328873102025e-05</v>
+      </c>
+      <c r="B26">
+        <v>0.0002786874064784751</v>
+      </c>
+      <c r="C26">
+        <v>1.436944797263177e-10</v>
+      </c>
+      <c r="D26">
+        <v>0.0006175604783640103</v>
+      </c>
+      <c r="E26">
+        <v>9.015284549150576e-16</v>
+      </c>
+      <c r="F26">
+        <v>1.000448225103915</v>
+      </c>
+      <c r="G26">
+        <v>0.9995519757118182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>7.722005860566619e-05</v>
+      </c>
+      <c r="B27">
+        <v>0.0002581503270831902</v>
+      </c>
+      <c r="C27">
+        <v>1.295578413523018e-10</v>
+      </c>
+      <c r="D27">
+        <v>0.0006344690238124357</v>
+      </c>
+      <c r="E27">
+        <v>1.027273206146682e-15</v>
+      </c>
+      <c r="F27">
+        <v>1.000446410204838</v>
+      </c>
+      <c r="G27">
+        <v>0.9995537889883114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>8.566025497742596e-05</v>
+      </c>
+      <c r="B28">
+        <v>0.000238570575095224</v>
+      </c>
+      <c r="C28">
+        <v>1.16792157920771e-10</v>
+      </c>
+      <c r="D28">
+        <v>0.0006504349322743599</v>
+      </c>
+      <c r="E28">
+        <v>1.16823074165408e-15</v>
+      </c>
+      <c r="F28">
+        <v>1.000444602685704</v>
+      </c>
+      <c r="G28">
+        <v>0.9995555948979976</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>9.501708722205208e-05</v>
+      </c>
+      <c r="B29">
+        <v>0.0002200208988539925</v>
+      </c>
+      <c r="C29">
+        <v>1.052908304991844e-10</v>
+      </c>
+      <c r="D29">
+        <v>0.0006653853959349898</v>
+      </c>
+      <c r="E29">
+        <v>1.325624089702309e-15</v>
+      </c>
+      <c r="F29">
+        <v>1.000442802522334</v>
+      </c>
+      <c r="G29">
+        <v>0.9995573934649564</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>0.0001053558593721396</v>
+      </c>
+      <c r="B30">
+        <v>0.0002025661432116749</v>
+      </c>
+      <c r="C30">
+        <v>9.495826958744359e-11</v>
+      </c>
+      <c r="D30">
+        <v>0.0006792555107075321</v>
+      </c>
+      <c r="E30">
+        <v>1.500504404476845e-15</v>
+      </c>
+      <c r="F30">
+        <v>1.000441009687645</v>
+      </c>
+      <c r="G30">
+        <v>0.9995591847161653</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>0.0001167289830718686</v>
+      </c>
+      <c r="B31">
+        <v>0.0001862582624841892</v>
+      </c>
+      <c r="C31">
+        <v>8.57061543609871e-11</v>
+      </c>
+      <c r="D31">
+        <v>0.0006919932632813019</v>
+      </c>
+      <c r="E31">
+        <v>1.693659017220521e-15</v>
+      </c>
+      <c r="F31">
+        <v>1.00043922415586</v>
+      </c>
+      <c r="G31">
+        <v>0.9995609686773024</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>0.0001291712648577714</v>
+      </c>
+      <c r="B32">
+        <v>0.000171131607727982</v>
+      </c>
+      <c r="C32">
+        <v>7.745046446721856e-11</v>
+      </c>
+      <c r="D32">
+        <v>0.0007035642438439073</v>
+      </c>
+      <c r="E32">
+        <v>1.905526892393587e-15</v>
+      </c>
+      <c r="F32">
+        <v>1.00043744590525</v>
+      </c>
+      <c r="G32">
+        <v>0.9995627453699977</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>0.0001426962997896771</v>
+      </c>
+      <c r="B33">
+        <v>0.0001571993203641658</v>
+      </c>
+      <c r="C33">
+        <v>7.010943355810082e-11</v>
+      </c>
+      <c r="D33">
+        <v>0.0007139552524561835</v>
+      </c>
+      <c r="E33">
+        <v>2.136137060784335e-15</v>
+      </c>
+      <c r="F33">
+        <v>1.000435674909119</v>
+      </c>
+      <c r="G33">
+        <v>0.9995645148208463</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>0.0001572947160151724</v>
+      </c>
+      <c r="B34">
+        <v>0.0001444515767380441</v>
+      </c>
+      <c r="C34">
+        <v>6.360251230878258e-11</v>
+      </c>
+      <c r="D34">
+        <v>0.0007231760544916799</v>
+      </c>
+      <c r="E34">
+        <v>2.385083463597602e-15</v>
+      </c>
+      <c r="F34">
+        <v>1.000433911146148</v>
+      </c>
+      <c r="G34">
+        <v>0.9995662770510743</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>0.0001729346738259033</v>
+      </c>
+      <c r="B35">
+        <v>0.0001328560871662103</v>
+      </c>
+      <c r="C35">
+        <v>5.785029297222782e-11</v>
+      </c>
+      <c r="D35">
+        <v>0.0007312588815886274</v>
+      </c>
+      <c r="E35">
+        <v>2.651542808969193e-15</v>
+      </c>
+      <c r="F35">
+        <v>1.000432154588516</v>
+      </c>
+      <c r="G35">
+        <v>0.9995680320883992</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>0.0001895645278250358</v>
+      </c>
+      <c r="B36">
+        <v>0.000122360758098179</v>
+      </c>
+      <c r="C36">
+        <v>5.277519041646296e-11</v>
+      </c>
+      <c r="D36">
+        <v>0.0007382557694873154</v>
+      </c>
+      <c r="E36">
+        <v>2.934332564045824e-15</v>
+      </c>
+      <c r="F36">
+        <v>1.000430405217321</v>
+      </c>
+      <c r="G36">
+        <v>0.9995697799516329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>0.0002071170976605718</v>
+      </c>
+      <c r="B37">
+        <v>0.0001128979628397348</v>
+      </c>
+      <c r="C37">
+        <v>4.830256286457624e-11</v>
+      </c>
+      <c r="D37">
+        <v>0.0007442342873058355</v>
+      </c>
+      <c r="E37">
+        <v>3.23199764896966e-15</v>
+      </c>
+      <c r="F37">
+        <v>1.000428663007836</v>
+      </c>
+      <c r="G37">
+        <v>0.9995715206654044</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>0.0002255147299691605</v>
+      </c>
+      <c r="B38">
+        <v>0.0001043896034882539</v>
+      </c>
+      <c r="C38">
+        <v>4.436193272495704e-11</v>
+      </c>
+      <c r="D38">
+        <v>0.0007492724756037719</v>
+      </c>
+      <c r="E38">
+        <v>3.542909862582751e-15</v>
+      </c>
+      <c r="F38">
+        <v>1.000426927937875</v>
+      </c>
+      <c r="G38">
+        <v>0.9995732542518074</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>0.0002446743329254577</v>
+      </c>
+      <c r="B39">
+        <v>9.67521454737039e-05</v>
+      </c>
+      <c r="C39">
+        <v>4.088803218649121e-11</v>
+      </c>
+      <c r="D39">
+        <v>0.0007534538118402841</v>
+      </c>
+      <c r="E39">
+        <v>3.865364533487031e-15</v>
+      </c>
+      <c r="F39">
+        <v>1.000425199986437</v>
+      </c>
+      <c r="G39">
+        <v>0.9995749807317498</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>0.0002645117662518167</v>
+      </c>
+      <c r="B40">
+        <v>8.990100756162314e-05</v>
+      </c>
+      <c r="C40">
+        <v>3.78215114323168e-11</v>
+      </c>
+      <c r="D40">
+        <v>0.0007568628203701759</v>
+      </c>
+      <c r="E40">
+        <v>4.197663078481528e-15</v>
+      </c>
+      <c r="F40">
+        <v>1.000423479127541</v>
+      </c>
+      <c r="G40">
+        <v>0.9995767001311185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>0.0002849452538543167</v>
+      </c>
+      <c r="B41">
+        <v>8.375397447940927e-05</v>
+      </c>
+      <c r="C41">
+        <v>3.510926228153237e-11</v>
+      </c>
+      <c r="D41">
+        <v>0.0007595816598166816</v>
+      </c>
+      <c r="E41">
+        <v>4.53817571936731e-15</v>
+      </c>
+      <c r="F41">
+        <v>1.000421765344905</v>
+      </c>
+      <c r="G41">
+        <v>0.9995784124661062</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>0.0003058977453415264</v>
+      </c>
+      <c r="B42">
+        <v>7.823355842963673e-05</v>
+      </c>
+      <c r="C42">
+        <v>3.270439464984899e-11</v>
+      </c>
+      <c r="D42">
+        <v>0.0007616877615571956</v>
+      </c>
+      <c r="E42">
+        <v>4.885383527674981e-15</v>
+      </c>
+      <c r="F42">
+        <v>1.000420058614832</v>
+      </c>
+      <c r="G42">
+        <v>0.9995801177603204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>0.000327298329470074</v>
+      </c>
+      <c r="B43">
+        <v>7.326841252796237e-05</v>
+      </c>
+      <c r="C43">
+        <v>3.056594760301592e-11</v>
+      </c>
+      <c r="D43">
+        <v>0.0007632524162844604</v>
+      </c>
+      <c r="E43">
+        <v>5.237902217964693e-15</v>
+      </c>
+      <c r="F43">
+        <v>1.000418358913697</v>
+      </c>
+      <c r="G43">
+        <v>0.9995818160372912</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>0.0003490828896783727</v>
+      </c>
+      <c r="B44">
+        <v>6.879398632981752e-05</v>
+      </c>
+      <c r="C44">
+        <v>2.865842743377718e-11</v>
+      </c>
+      <c r="D44">
+        <v>0.0007643401184789404</v>
+      </c>
+      <c r="E44">
+        <v>5.594491622312534e-15</v>
+      </c>
+      <c r="F44">
+        <v>1.000416666222089</v>
+      </c>
+      <c r="G44">
+        <v>0.999583507316344</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>0.0003711942104198331</v>
+      </c>
+      <c r="B45">
+        <v>6.47526321579329e-05</v>
+      </c>
+      <c r="C45">
+        <v>2.695125496115569e-11</v>
+      </c>
+      <c r="D45">
+        <v>0.0007650084600803662</v>
+      </c>
+      <c r="E45">
+        <v>5.954054998171691e-15</v>
+      </c>
+      <c r="F45">
+        <v>1.000414980512981</v>
+      </c>
+      <c r="G45">
+        <v>0.9995851916244115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>0.0001663413029178696</v>
+      </c>
+      <c r="B46">
+        <v>0.0001663412428036581</v>
+      </c>
+      <c r="C46">
+        <v>6.011736005600485e-11</v>
+      </c>
+      <c r="D46">
+        <v>0.0008806587571932693</v>
+      </c>
+      <c r="E46">
+        <v>3.071518723809552e-15</v>
+      </c>
+      <c r="F46">
+        <v>0.9999999999698517</v>
+      </c>
+      <c r="G46">
+        <v>1.000000000030148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>0.0002704932176999589</v>
+      </c>
+      <c r="B47">
+        <v>0.0001080769019899734</v>
+      </c>
+      <c r="C47">
+        <v>3.696950365279581e-11</v>
+      </c>
+      <c r="D47">
+        <v>0.0009304582362630388</v>
+      </c>
+      <c r="E47">
+        <v>5.277140715659634e-15</v>
+      </c>
+      <c r="F47">
+        <v>0.9999999999815117</v>
+      </c>
+      <c r="G47">
+        <v>1.000000000018488</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>0.000522516146157689</v>
+      </c>
+      <c r="B48">
+        <v>5.801102660539517e-05</v>
+      </c>
+      <c r="C48">
+        <v>1.913816457814572e-11</v>
+      </c>
+      <c r="D48">
+        <v>0.0009647568777618876</v>
+      </c>
+      <c r="E48">
+        <v>1.056970846065702e-14</v>
+      </c>
+      <c r="F48">
+        <v>0.999999999990429</v>
+      </c>
+      <c r="G48">
+        <v>1.000000000009571</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>0.0008000676787756413</v>
+      </c>
+      <c r="B49">
+        <v>3.806011293962785e-05</v>
+      </c>
+      <c r="C49">
+        <v>1.249894232869396e-11</v>
+      </c>
+      <c r="D49">
+        <v>0.000969179938622705</v>
+      </c>
+      <c r="E49">
+        <v>1.625835313142665e-14</v>
+      </c>
+      <c r="F49">
+        <v>0.9999999776068835</v>
+      </c>
+      <c r="G49">
+        <v>1.000000022393117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>0.00108296042574502</v>
+      </c>
+      <c r="B50">
+        <v>2.796714789657933e-05</v>
+      </c>
+      <c r="C50">
+        <v>9.233947753471935e-12</v>
+      </c>
+      <c r="D50">
+        <v>0.0009639807976138897</v>
+      </c>
+      <c r="E50">
+        <v>2.188902310555923e-14</v>
+      </c>
+      <c r="F50">
+        <v>0.9999999990407247</v>
+      </c>
+      <c r="G50">
+        <v>1.000000000959275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>0.001365502601709641</v>
+      </c>
+      <c r="B51">
+        <v>2.197177418753763e-05</v>
+      </c>
+      <c r="C51">
+        <v>7.323310835902731e-12</v>
+      </c>
+      <c r="D51">
+        <v>0.000954916232873162</v>
+      </c>
+      <c r="E51">
+        <v>2.734029638015162e-14</v>
+      </c>
+      <c r="F51">
+        <v>0.9999999999553566</v>
+      </c>
+      <c r="G51">
+        <v>1.000000000044643</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>0.001645710718736118</v>
+      </c>
+      <c r="B52">
+        <v>1.802297172074355e-05</v>
+      </c>
+      <c r="C52">
+        <v>6.076402059063978e-12</v>
+      </c>
+      <c r="D52">
+        <v>0.0009440337396805513</v>
+      </c>
+      <c r="E52">
+        <v>3.257514999573412e-14</v>
+      </c>
+      <c r="F52">
+        <v>0.9999999999951825</v>
+      </c>
+      <c r="G52">
+        <v>1.000000000004817</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>0.001922763487212584</v>
+      </c>
+      <c r="B53">
+        <v>1.523294362292673e-05</v>
+      </c>
+      <c r="C53">
+        <v>5.200847668721945e-12</v>
+      </c>
+      <c r="D53">
+        <v>0.0009322176436119168</v>
+      </c>
+      <c r="E53">
+        <v>3.758275344686103e-14</v>
+      </c>
+      <c r="F53">
+        <v>0.9999999999973284</v>
+      </c>
+      <c r="G53">
+        <v>1.000000000002672</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>0.002196284459748561</v>
+      </c>
+      <c r="B54">
+        <v>1.315974482400519e-05</v>
+      </c>
+      <c r="C54">
+        <v>4.553144268535262e-12</v>
+      </c>
+      <c r="D54">
+        <v>0.0009199064711417989</v>
+      </c>
+      <c r="E54">
+        <v>4.236211869519639e-14</v>
+      </c>
+      <c r="F54">
+        <v>0.9999999999977263</v>
+      </c>
+      <c r="G54">
+        <v>1.000000000002274</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>0.002466094632384408</v>
+      </c>
+      <c r="B55">
+        <v>1.155986801929275e-05</v>
+      </c>
+      <c r="C55">
+        <v>4.054994430733152e-12</v>
+      </c>
+      <c r="D55">
+        <v>0.0009073403628811053</v>
+      </c>
+      <c r="E55">
+        <v>4.691647546562045e-14</v>
+      </c>
+      <c r="F55">
+        <v>0.9999999999979678</v>
+      </c>
+      <c r="G55">
+        <v>1.000000000002032</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>0.002732112718906215</v>
+      </c>
+      <c r="B56">
+        <v>1.028850292140916e-05</v>
+      </c>
+      <c r="C56">
+        <v>3.660171094253082e-12</v>
+      </c>
+      <c r="D56">
+        <v>0.0008946608135371956</v>
+      </c>
+      <c r="E56">
+        <v>5.125101121879089e-14</v>
+      </c>
+      <c r="F56">
+        <v>0.9999999999981739</v>
+      </c>
+      <c r="G56">
+        <v>1.000000000001826</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>0.002994309906982323</v>
+      </c>
+      <c r="B57">
+        <v>9.254277542384584e-06</v>
+      </c>
+      <c r="C57">
+        <v>3.339667673230701e-12</v>
+      </c>
+      <c r="D57">
+        <v>0.0008819559298557757</v>
+      </c>
+      <c r="E57">
+        <v>5.537185104554633e-14</v>
+      </c>
+      <c r="F57">
+        <v>0.9999999999983302</v>
+      </c>
+      <c r="G57">
+        <v>1.00000000000167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>0.003252687364465735</v>
+      </c>
+      <c r="B58">
+        <v>8.396749862214093e-06</v>
+      </c>
+      <c r="C58">
+        <v>3.074380928591698e-12</v>
+      </c>
+      <c r="D58">
+        <v>0.0008692829381881022</v>
+      </c>
+      <c r="E58">
+        <v>5.928555479805417e-14</v>
+      </c>
+      <c r="F58">
+        <v>0.9999999999984652</v>
+      </c>
+      <c r="G58">
+        <v>1.000000000001535</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>0.003507264214324672</v>
+      </c>
+      <c r="B59">
+        <v>7.674368342607464e-06</v>
+      </c>
+      <c r="C59">
+        <v>2.851225168364241e-12</v>
+      </c>
+      <c r="D59">
+        <v>0.0008566802232245952</v>
+      </c>
+      <c r="E59">
+        <v>6.299885196697481e-14</v>
+      </c>
+      <c r="F59">
+        <v>0.9999999999985718</v>
+      </c>
+      <c r="G59">
+        <v>1.000000000001428</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>0.003758070716701205</v>
+      </c>
+      <c r="B60">
+        <v>7.05763978734269e-06</v>
+      </c>
+      <c r="C60">
+        <v>2.660939675221102e-12</v>
+      </c>
+      <c r="D60">
+        <v>0.0008441741593932928</v>
+      </c>
+      <c r="E60">
+        <v>6.651849464224722e-14</v>
+      </c>
+      <c r="F60">
+        <v>0.9999999472356876</v>
+      </c>
+      <c r="G60">
+        <v>1.000000052764315</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>0.004005144211300478</v>
+      </c>
+      <c r="B61">
+        <v>6.52505774716555e-06</v>
+      </c>
+      <c r="C61">
+        <v>2.496788947610169e-12</v>
+      </c>
+      <c r="D61">
+        <v>0.0008317831817249683</v>
+      </c>
+      <c r="E61">
+        <v>6.985117293900657e-14</v>
+      </c>
+      <c r="F61">
+        <v>0.9999999800359876</v>
+      </c>
+      <c r="G61">
+        <v>1.000000019964013</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>0.00424852660271887</v>
+      </c>
+      <c r="B62">
+        <v>6.060574075703765e-06</v>
+      </c>
+      <c r="C62">
+        <v>2.3537571630789e-12</v>
+      </c>
+      <c r="D62">
+        <v>0.0008195203135783676</v>
+      </c>
+      <c r="E62">
+        <v>7.300346522965618e-14</v>
+      </c>
+      <c r="F62">
+        <v>0.9999999923680818</v>
+      </c>
+      <c r="G62">
+        <v>1.000000007631918</v>
       </c>
     </row>
   </sheetData>
@@ -994,15 +3184,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:BH3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:60">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -1049,105 +3239,501 @@
       <c r="P1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1">
+        <v>32</v>
+      </c>
+      <c r="AH1">
+        <v>33</v>
+      </c>
+      <c r="AI1">
+        <v>34</v>
+      </c>
+      <c r="AJ1">
+        <v>35</v>
+      </c>
+      <c r="AK1">
+        <v>36</v>
+      </c>
+      <c r="AL1">
+        <v>37</v>
+      </c>
+      <c r="AM1">
+        <v>38</v>
+      </c>
+      <c r="AN1">
+        <v>39</v>
+      </c>
+      <c r="AO1">
+        <v>40</v>
+      </c>
+      <c r="AP1">
+        <v>41</v>
+      </c>
+      <c r="AQ1">
+        <v>42</v>
+      </c>
+      <c r="AR1">
+        <v>43</v>
+      </c>
+      <c r="AS1">
+        <v>44</v>
+      </c>
+      <c r="AT1">
+        <v>45</v>
+      </c>
+      <c r="AU1">
+        <v>46</v>
+      </c>
+      <c r="AV1">
+        <v>47</v>
+      </c>
+      <c r="AW1">
+        <v>48</v>
+      </c>
+      <c r="AX1">
+        <v>49</v>
+      </c>
+      <c r="AY1">
+        <v>50</v>
+      </c>
+      <c r="AZ1">
+        <v>51</v>
+      </c>
+      <c r="BA1">
+        <v>52</v>
+      </c>
+      <c r="BB1">
+        <v>53</v>
+      </c>
+      <c r="BC1">
+        <v>54</v>
+      </c>
+      <c r="BD1">
+        <v>55</v>
+      </c>
+      <c r="BE1">
+        <v>56</v>
+      </c>
+      <c r="BF1">
+        <v>57</v>
+      </c>
+      <c r="BG1">
+        <v>58</v>
+      </c>
+      <c r="BH1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="B2">
-        <v>0.071904538</v>
+        <v>0.000328</v>
       </c>
       <c r="C2">
-        <v>0.06704197100000001</v>
+        <v>0.000338</v>
       </c>
       <c r="D2">
-        <v>0.07003089</v>
+        <v>0.00034</v>
       </c>
       <c r="E2">
-        <v>0.07091734599999999</v>
+        <v>0.000342</v>
       </c>
       <c r="F2">
-        <v>0.06640027</v>
+        <v>0.00034</v>
       </c>
       <c r="G2">
-        <v>0.06443476400000001</v>
+        <v>0.000344</v>
       </c>
       <c r="H2">
-        <v>0.054944928</v>
+        <v>0.000341</v>
       </c>
       <c r="I2">
-        <v>0.044019878</v>
+        <v>0.000341</v>
       </c>
       <c r="J2">
-        <v>0.02681887</v>
+        <v>0.000344</v>
       </c>
       <c r="K2">
-        <v>0.008967201000000001</v>
+        <v>0.000342</v>
       </c>
       <c r="L2">
-        <v>0.001888577</v>
+        <v>0.00034</v>
       </c>
       <c r="M2">
-        <v>0.002253871</v>
+        <v>0.000342</v>
       </c>
       <c r="N2">
-        <v>-1.135299999999997e-05</v>
+        <v>0.000342</v>
       </c>
       <c r="O2">
-        <v>-0.001229958</v>
+        <v>0.000341</v>
       </c>
       <c r="P2">
-        <v>-0.001496759</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>0.00034</v>
+      </c>
+      <c r="Q2">
+        <v>0.000344</v>
+      </c>
+      <c r="R2">
+        <v>0.000341</v>
+      </c>
+      <c r="S2">
+        <v>0.000335</v>
+      </c>
+      <c r="T2">
+        <v>0.000329</v>
+      </c>
+      <c r="U2">
+        <v>0.000326</v>
+      </c>
+      <c r="V2">
+        <v>0.000316</v>
+      </c>
+      <c r="W2">
+        <v>0.000315</v>
+      </c>
+      <c r="X2">
+        <v>0.000305</v>
+      </c>
+      <c r="Y2">
+        <v>0.000299</v>
+      </c>
+      <c r="Z2">
+        <v>0.000286</v>
+      </c>
+      <c r="AA2">
+        <v>0.000273</v>
+      </c>
+      <c r="AB2">
+        <v>0.000256</v>
+      </c>
+      <c r="AC2">
+        <v>0.000245</v>
+      </c>
+      <c r="AD2">
+        <v>0.000224</v>
+      </c>
+      <c r="AE2">
+        <v>0.000206</v>
+      </c>
+      <c r="AF2">
+        <v>0.000182</v>
+      </c>
+      <c r="AG2">
+        <v>0.000155</v>
+      </c>
+      <c r="AH2">
+        <v>0.000139</v>
+      </c>
+      <c r="AI2">
+        <v>0.000124</v>
+      </c>
+      <c r="AJ2">
+        <v>0.000107</v>
+      </c>
+      <c r="AK2">
+        <v>9.2e-05</v>
+      </c>
+      <c r="AL2">
+        <v>8.1e-05</v>
+      </c>
+      <c r="AM2">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="AN2">
+        <v>6.2e-05</v>
+      </c>
+      <c r="AO2">
+        <v>5.6e-05</v>
+      </c>
+      <c r="AP2">
+        <v>4.5e-05</v>
+      </c>
+      <c r="AQ2">
+        <v>4.2e-05</v>
+      </c>
+      <c r="AR2">
+        <v>3.4e-05</v>
+      </c>
+      <c r="AS2">
+        <v>0.000625</v>
+      </c>
+      <c r="AT2">
+        <v>0.000688</v>
+      </c>
+      <c r="AU2">
+        <v>0.000251</v>
+      </c>
+      <c r="AV2">
+        <v>0.000149</v>
+      </c>
+      <c r="AW2">
+        <v>0.000107</v>
+      </c>
+      <c r="AX2">
+        <v>8.500000000000001e-05</v>
+      </c>
+      <c r="AY2">
+        <v>7.8e-05</v>
+      </c>
+      <c r="AZ2">
+        <v>6.7e-05</v>
+      </c>
+      <c r="BA2">
+        <v>5.8e-05</v>
+      </c>
+      <c r="BB2">
+        <v>5.4e-05</v>
+      </c>
+      <c r="BC2">
+        <v>5.3e-05</v>
+      </c>
+      <c r="BD2">
+        <v>5.3e-05</v>
+      </c>
+      <c r="BE2">
+        <v>4.8e-05</v>
+      </c>
+      <c r="BF2">
+        <v>4.1e-05</v>
+      </c>
+      <c r="BG2">
+        <v>3.8e-05</v>
+      </c>
+      <c r="BH2">
+        <v>3.8e-05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="B3">
-        <v>0.002380868451341736</v>
+        <v>-2.843935154402886e-05</v>
       </c>
       <c r="C3">
-        <v>-0.002237855946052719</v>
+        <v>-1.756182639176836e-05</v>
       </c>
       <c r="D3">
-        <v>0.001131751355276975</v>
+        <v>-1.459993091371033e-05</v>
       </c>
       <c r="E3">
-        <v>0.002657222003473417</v>
+        <v>-1.15467612364643e-05</v>
       </c>
       <c r="F3">
-        <v>-0.0006787621323308263</v>
+        <v>-1.239227190708041e-05</v>
       </c>
       <c r="G3">
-        <v>-0.0001663928370761458</v>
+        <v>-7.124291590384225e-06</v>
       </c>
       <c r="H3">
-        <v>-0.003683889206730281</v>
+        <v>-8.728584976364334e-06</v>
       </c>
       <c r="I3">
-        <v>-0.0003882809624511652</v>
+        <v>-7.188651415144848e-06</v>
       </c>
       <c r="J3">
-        <v>0.002885421085913713</v>
+        <v>-2.485405812927899e-06</v>
       </c>
       <c r="K3">
-        <v>-0.00178415050506639</v>
+        <v>-2.596778283210611e-06</v>
       </c>
       <c r="L3">
-        <v>-0.003431403572508739</v>
+        <v>-2.497241811832453e-06</v>
       </c>
       <c r="M3">
-        <v>-0.0007850088946899829</v>
+        <v>1.84272922441127e-06</v>
       </c>
       <c r="N3">
-        <v>-0.001947310028463186</v>
+        <v>4.457264800618148e-06</v>
       </c>
       <c r="O3">
-        <v>-0.002562551125732375</v>
+        <v>6.385757452784604e-06</v>
       </c>
       <c r="P3">
-        <v>-0.002466947412334936</v>
+        <v>8.67354715884547e-06</v>
+      </c>
+      <c r="Q3">
+        <v>1.637258527871228e-05</v>
+      </c>
+      <c r="R3">
+        <v>1.754199598202899e-05</v>
+      </c>
+      <c r="S3">
+        <v>1.624840467500689e-05</v>
+      </c>
+      <c r="T3">
+        <v>1.556583487079873e-05</v>
+      </c>
+      <c r="U3">
+        <v>1.857488838195225e-05</v>
+      </c>
+      <c r="V3">
+        <v>1.536082324177668e-05</v>
+      </c>
+      <c r="W3">
+        <v>2.201005097699166e-05</v>
+      </c>
+      <c r="X3">
+        <v>2.060453196775188e-05</v>
+      </c>
+      <c r="Y3">
+        <v>2.421362920893152e-05</v>
+      </c>
+      <c r="Z3">
+        <v>2.188329213441778e-05</v>
+      </c>
+      <c r="AA3">
+        <v>2.06230849565657e-05</v>
+      </c>
+      <c r="AB3">
+        <v>1.639257678167215e-05</v>
+      </c>
+      <c r="AC3">
+        <v>1.908980125550603e-05</v>
+      </c>
+      <c r="AD3">
+        <v>1.254540611474002e-05</v>
+      </c>
+      <c r="AE3">
+        <v>9.526048250112744e-06</v>
+      </c>
+      <c r="AF3">
+        <v>7.489728107767989e-07</v>
+      </c>
+      <c r="AG3">
+        <v>-1.109334851416699e-05</v>
+      </c>
+      <c r="AH3">
+        <v>-1.230305442333798e-05</v>
+      </c>
+      <c r="AI3">
+        <v>-1.314782657756673e-05</v>
+      </c>
+      <c r="AJ3">
+        <v>-1.683914137338454e-05</v>
+      </c>
+      <c r="AK3">
+        <v>-1.952140161867588e-05</v>
+      </c>
+      <c r="AL3">
+        <v>-1.927201291654028e-05</v>
+      </c>
+      <c r="AM3">
+        <v>-2.010974779781164e-05</v>
+      </c>
+      <c r="AN3">
+        <v>-1.900761638921337e-05</v>
+      </c>
+      <c r="AO3">
+        <v>-1.690678398564123e-05</v>
+      </c>
+      <c r="AP3">
+        <v>-2.072916609353129e-05</v>
+      </c>
+      <c r="AQ3">
+        <v>-1.738752489475853e-05</v>
+      </c>
+      <c r="AR3">
+        <v>-1.979280689434733e-05</v>
+      </c>
+      <c r="AS3">
+        <v>-9.047075903900715e-05</v>
+      </c>
+      <c r="AT3">
+        <v>0.0001077147583841649</v>
+      </c>
+      <c r="AU3">
+        <v>-4.997072768942037e-05</v>
+      </c>
+      <c r="AV3">
+        <v>-2.261198806205052e-05</v>
+      </c>
+      <c r="AW3">
+        <v>-1.044683976030876e-05</v>
+      </c>
+      <c r="AX3">
+        <v>-4.961525008464839e-06</v>
+      </c>
+      <c r="AY3">
+        <v>4.009060494237869e-06</v>
+      </c>
+      <c r="AZ3">
+        <v>3.257677164293239e-06</v>
+      </c>
+      <c r="BA3">
+        <v>1.353663732937554e-06</v>
+      </c>
+      <c r="BB3">
+        <v>2.570659570340257e-06</v>
+      </c>
+      <c r="BC3">
+        <v>5.596100241550444e-06</v>
+      </c>
+      <c r="BD3">
+        <v>8.82675495179702e-06</v>
+      </c>
+      <c r="BE3">
+        <v>6.504380748673933e-06</v>
+      </c>
+      <c r="BF3">
+        <v>1.783028032285104e-06</v>
+      </c>
+      <c r="BG3">
+        <v>7.646299932391573e-07</v>
+      </c>
+      <c r="BH3">
+        <v>2.518846302583052e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1157,15 +3743,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:BH3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:60">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -1212,105 +3798,501 @@
       <c r="P1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1">
+        <v>32</v>
+      </c>
+      <c r="AH1">
+        <v>33</v>
+      </c>
+      <c r="AI1">
+        <v>34</v>
+      </c>
+      <c r="AJ1">
+        <v>35</v>
+      </c>
+      <c r="AK1">
+        <v>36</v>
+      </c>
+      <c r="AL1">
+        <v>37</v>
+      </c>
+      <c r="AM1">
+        <v>38</v>
+      </c>
+      <c r="AN1">
+        <v>39</v>
+      </c>
+      <c r="AO1">
+        <v>40</v>
+      </c>
+      <c r="AP1">
+        <v>41</v>
+      </c>
+      <c r="AQ1">
+        <v>42</v>
+      </c>
+      <c r="AR1">
+        <v>43</v>
+      </c>
+      <c r="AS1">
+        <v>44</v>
+      </c>
+      <c r="AT1">
+        <v>45</v>
+      </c>
+      <c r="AU1">
+        <v>46</v>
+      </c>
+      <c r="AV1">
+        <v>47</v>
+      </c>
+      <c r="AW1">
+        <v>48</v>
+      </c>
+      <c r="AX1">
+        <v>49</v>
+      </c>
+      <c r="AY1">
+        <v>50</v>
+      </c>
+      <c r="AZ1">
+        <v>51</v>
+      </c>
+      <c r="BA1">
+        <v>52</v>
+      </c>
+      <c r="BB1">
+        <v>53</v>
+      </c>
+      <c r="BC1">
+        <v>54</v>
+      </c>
+      <c r="BD1">
+        <v>55</v>
+      </c>
+      <c r="BE1">
+        <v>56</v>
+      </c>
+      <c r="BF1">
+        <v>57</v>
+      </c>
+      <c r="BG1">
+        <v>58</v>
+      </c>
+      <c r="BH1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="B2">
-        <v>0.071904538</v>
+        <v>0.000328</v>
       </c>
       <c r="C2">
-        <v>0.06704197100000001</v>
+        <v>0.000338</v>
       </c>
       <c r="D2">
-        <v>0.07003089</v>
+        <v>0.00034</v>
       </c>
       <c r="E2">
-        <v>0.07091734599999999</v>
+        <v>0.000342</v>
       </c>
       <c r="F2">
-        <v>0.06640027</v>
+        <v>0.00034</v>
       </c>
       <c r="G2">
-        <v>0.06443476400000001</v>
+        <v>0.000344</v>
       </c>
       <c r="H2">
-        <v>0.054944928</v>
+        <v>0.000341</v>
       </c>
       <c r="I2">
-        <v>0.044019878</v>
+        <v>0.000341</v>
       </c>
       <c r="J2">
-        <v>0.02681887</v>
+        <v>0.000344</v>
       </c>
       <c r="K2">
-        <v>0.008967201000000001</v>
+        <v>0.000342</v>
       </c>
       <c r="L2">
-        <v>0.001888577</v>
+        <v>0.00034</v>
       </c>
       <c r="M2">
-        <v>0.002253871</v>
+        <v>0.000342</v>
       </c>
       <c r="N2">
-        <v>-1.135299999999997e-05</v>
+        <v>0.000342</v>
       </c>
       <c r="O2">
-        <v>-0.001229958</v>
+        <v>0.000341</v>
       </c>
       <c r="P2">
-        <v>-0.001496759</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>0.00034</v>
+      </c>
+      <c r="Q2">
+        <v>0.000344</v>
+      </c>
+      <c r="R2">
+        <v>0.000341</v>
+      </c>
+      <c r="S2">
+        <v>0.000335</v>
+      </c>
+      <c r="T2">
+        <v>0.000329</v>
+      </c>
+      <c r="U2">
+        <v>0.000326</v>
+      </c>
+      <c r="V2">
+        <v>0.000316</v>
+      </c>
+      <c r="W2">
+        <v>0.000315</v>
+      </c>
+      <c r="X2">
+        <v>0.000305</v>
+      </c>
+      <c r="Y2">
+        <v>0.000299</v>
+      </c>
+      <c r="Z2">
+        <v>0.000286</v>
+      </c>
+      <c r="AA2">
+        <v>0.000273</v>
+      </c>
+      <c r="AB2">
+        <v>0.000256</v>
+      </c>
+      <c r="AC2">
+        <v>0.000245</v>
+      </c>
+      <c r="AD2">
+        <v>0.000224</v>
+      </c>
+      <c r="AE2">
+        <v>0.000206</v>
+      </c>
+      <c r="AF2">
+        <v>0.000182</v>
+      </c>
+      <c r="AG2">
+        <v>0.000155</v>
+      </c>
+      <c r="AH2">
+        <v>0.000139</v>
+      </c>
+      <c r="AI2">
+        <v>0.000124</v>
+      </c>
+      <c r="AJ2">
+        <v>0.000107</v>
+      </c>
+      <c r="AK2">
+        <v>9.2e-05</v>
+      </c>
+      <c r="AL2">
+        <v>8.1e-05</v>
+      </c>
+      <c r="AM2">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="AN2">
+        <v>6.2e-05</v>
+      </c>
+      <c r="AO2">
+        <v>5.6e-05</v>
+      </c>
+      <c r="AP2">
+        <v>4.5e-05</v>
+      </c>
+      <c r="AQ2">
+        <v>4.2e-05</v>
+      </c>
+      <c r="AR2">
+        <v>3.4e-05</v>
+      </c>
+      <c r="AS2">
+        <v>0.000625</v>
+      </c>
+      <c r="AT2">
+        <v>0.000688</v>
+      </c>
+      <c r="AU2">
+        <v>0.000251</v>
+      </c>
+      <c r="AV2">
+        <v>0.000149</v>
+      </c>
+      <c r="AW2">
+        <v>0.000107</v>
+      </c>
+      <c r="AX2">
+        <v>8.500000000000001e-05</v>
+      </c>
+      <c r="AY2">
+        <v>7.8e-05</v>
+      </c>
+      <c r="AZ2">
+        <v>6.7e-05</v>
+      </c>
+      <c r="BA2">
+        <v>5.8e-05</v>
+      </c>
+      <c r="BB2">
+        <v>5.4e-05</v>
+      </c>
+      <c r="BC2">
+        <v>5.3e-05</v>
+      </c>
+      <c r="BD2">
+        <v>5.3e-05</v>
+      </c>
+      <c r="BE2">
+        <v>4.8e-05</v>
+      </c>
+      <c r="BF2">
+        <v>4.1e-05</v>
+      </c>
+      <c r="BG2">
+        <v>3.8e-05</v>
+      </c>
+      <c r="BH2">
+        <v>3.8e-05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="B3">
-        <v>0.03311151865466037</v>
+        <v>0.08670534007325872</v>
       </c>
       <c r="C3">
-        <v>0.03337992473480111</v>
+        <v>0.05195806624783539</v>
       </c>
       <c r="D3">
-        <v>0.01616074499805693</v>
+        <v>0.04294097327561863</v>
       </c>
       <c r="E3">
-        <v>0.03746928154183064</v>
+        <v>0.03376245975574357</v>
       </c>
       <c r="F3">
-        <v>0.01022227970354377</v>
+        <v>0.03644785855023651</v>
       </c>
       <c r="G3">
-        <v>0.002582345720644617</v>
+        <v>0.02071014997204717</v>
       </c>
       <c r="H3">
-        <v>0.06704693846773777</v>
+        <v>0.02559702339109775</v>
       </c>
       <c r="I3">
-        <v>0.008820582429855103</v>
+        <v>0.02108108919397316</v>
       </c>
       <c r="J3">
-        <v>0.1075892118464988</v>
+        <v>0.007225016898046219</v>
       </c>
       <c r="K3">
-        <v>0.1989640362769151</v>
+        <v>0.007592918956756171</v>
       </c>
       <c r="L3">
-        <v>1.81692542719134</v>
+        <v>0.007344828858330743</v>
       </c>
       <c r="M3">
-        <v>0.3482936222569894</v>
+        <v>0.005388097147401375</v>
       </c>
       <c r="N3">
-        <v>-171.5238288085256</v>
+        <v>0.01303293801350336</v>
       </c>
       <c r="O3">
-        <v>-2.083446041029348</v>
+        <v>0.01872656144511614</v>
       </c>
       <c r="P3">
-        <v>-1.648192803473997</v>
+        <v>0.02551043282013373</v>
+      </c>
+      <c r="Q3">
+        <v>0.04759472464741941</v>
+      </c>
+      <c r="R3">
+        <v>0.05144280346636067</v>
+      </c>
+      <c r="S3">
+        <v>0.04850270052240864</v>
+      </c>
+      <c r="T3">
+        <v>0.04731256799634873</v>
+      </c>
+      <c r="U3">
+        <v>0.05697818522071241</v>
+      </c>
+      <c r="V3">
+        <v>0.0486102001322047</v>
+      </c>
+      <c r="W3">
+        <v>0.06987317770473542</v>
+      </c>
+      <c r="X3">
+        <v>0.06755584251721929</v>
+      </c>
+      <c r="Y3">
+        <v>0.08098203748806528</v>
+      </c>
+      <c r="Z3">
+        <v>0.07651500746299922</v>
+      </c>
+      <c r="AA3">
+        <v>0.07554243573833591</v>
+      </c>
+      <c r="AB3">
+        <v>0.06403350305340683</v>
+      </c>
+      <c r="AC3">
+        <v>0.07791755614492257</v>
+      </c>
+      <c r="AD3">
+        <v>0.05600627729794651</v>
+      </c>
+      <c r="AE3">
+        <v>0.04624295267045021</v>
+      </c>
+      <c r="AF3">
+        <v>0.004115235224048345</v>
+      </c>
+      <c r="AG3">
+        <v>0.07156999041398056</v>
+      </c>
+      <c r="AH3">
+        <v>0.0885111829017121</v>
+      </c>
+      <c r="AI3">
+        <v>0.1060308594965059</v>
+      </c>
+      <c r="AJ3">
+        <v>0.1573751530222854</v>
+      </c>
+      <c r="AK3">
+        <v>0.2121891480290856</v>
+      </c>
+      <c r="AL3">
+        <v>0.2379260853893861</v>
+      </c>
+      <c r="AM3">
+        <v>0.2872821113973091</v>
+      </c>
+      <c r="AN3">
+        <v>0.3065744578905382</v>
+      </c>
+      <c r="AO3">
+        <v>0.3019068568864505</v>
+      </c>
+      <c r="AP3">
+        <v>0.4606481354118065</v>
+      </c>
+      <c r="AQ3">
+        <v>0.4139886879704412</v>
+      </c>
+      <c r="AR3">
+        <v>0.5821413792455098</v>
+      </c>
+      <c r="AS3">
+        <v>0.1447532144624114</v>
+      </c>
+      <c r="AT3">
+        <v>0.1565621488141931</v>
+      </c>
+      <c r="AU3">
+        <v>0.1990865644996828</v>
+      </c>
+      <c r="AV3">
+        <v>0.1517583091412786</v>
+      </c>
+      <c r="AW3">
+        <v>0.09763401645148377</v>
+      </c>
+      <c r="AX3">
+        <v>0.05837088245252751</v>
+      </c>
+      <c r="AY3">
+        <v>0.05139821146458807</v>
+      </c>
+      <c r="AZ3">
+        <v>0.0486220472282573</v>
+      </c>
+      <c r="BA3">
+        <v>0.02333902987823369</v>
+      </c>
+      <c r="BB3">
+        <v>0.04760480685815291</v>
+      </c>
+      <c r="BC3">
+        <v>0.1055867970103857</v>
+      </c>
+      <c r="BD3">
+        <v>0.1665425462603211</v>
+      </c>
+      <c r="BE3">
+        <v>0.1355079322640403</v>
+      </c>
+      <c r="BF3">
+        <v>0.04348848859231962</v>
+      </c>
+      <c r="BG3">
+        <v>0.02012184192734624</v>
+      </c>
+      <c r="BH3">
+        <v>0.06628542901534346</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +4302,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1331,13 +4313,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1345,27 +4327,83 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1375,23 +4413,40 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>127</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C2">
+        <v>-0.999999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3">
+        <v>-0.9999999999999991</v>
+      </c>
+      <c r="C3">
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
